--- a/outputs/last_fetch_progress.xlsx
+++ b/outputs/last_fetch_progress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>site__village</t>
   </si>
@@ -61,25 +61,37 @@
     <t>review</t>
   </si>
   <si>
-    <t>HEINGANG (CT)</t>
-  </si>
-  <si>
-    <t>270316</t>
-  </si>
-  <si>
-    <t>HEINGANGCT</t>
-  </si>
-  <si>
-    <t>IMPHAL EAST</t>
-  </si>
-  <si>
-    <t>IED-IV</t>
+    <t>ATHOKPAM</t>
+  </si>
+  <si>
+    <t>KAKCHING KHUNOU</t>
+  </si>
+  <si>
+    <t>801479</t>
+  </si>
+  <si>
+    <t>801483</t>
+  </si>
+  <si>
+    <t>MATHAK LEIKAI</t>
+  </si>
+  <si>
+    <t>KAKCHING KHUMAN</t>
+  </si>
+  <si>
+    <t>THOUBAL</t>
+  </si>
+  <si>
+    <t>KAKCHING</t>
   </si>
   <si>
     <t>completed</t>
   </si>
   <si>
-    <t>issue</t>
+    <t>ongoing</t>
+  </si>
+  <si>
+    <t>not reviewed</t>
   </si>
 </sst>
 </file>
@@ -437,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -498,46 +510,96 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0.578</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="H2">
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1.45</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>33</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
         <v>1</v>
       </c>
-      <c r="I2">
-        <v>24</v>
-      </c>
-      <c r="J2">
-        <v>0.6</v>
-      </c>
-      <c r="K2">
-        <v>1.1</v>
-      </c>
-      <c r="L2">
-        <v>24</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2" t="s">
-        <v>21</v>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/last_fetch_progress.xlsx
+++ b/outputs/last_fetch_progress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>site__village</t>
   </si>
@@ -61,28 +61,16 @@
     <t>review</t>
   </si>
   <si>
-    <t>ATHOKPAM</t>
-  </si>
-  <si>
-    <t>KAKCHING KHUNOU</t>
-  </si>
-  <si>
-    <t>801479</t>
-  </si>
-  <si>
-    <t>801483</t>
-  </si>
-  <si>
-    <t>MATHAK LEIKAI</t>
-  </si>
-  <si>
-    <t>KAKCHING KHUMAN</t>
-  </si>
-  <si>
-    <t>THOUBAL</t>
-  </si>
-  <si>
-    <t>KAKCHING</t>
+    <t>TENGKHAL KHUNOU</t>
+  </si>
+  <si>
+    <t>269882</t>
+  </si>
+  <si>
+    <t>TENGKHAL KHUNOUA</t>
+  </si>
+  <si>
+    <t>BISHNUPUR</t>
   </si>
   <si>
     <t>completed</t>
@@ -510,46 +498,46 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0.35</v>
+      </c>
+      <c r="K2">
+        <v>0.25</v>
+      </c>
+      <c r="L2">
+        <v>11</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
         <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0.578</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>10</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -557,49 +545,49 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0.25</v>
+      </c>
+      <c r="K3">
+        <v>0.2</v>
+      </c>
+      <c r="L3">
+        <v>15</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" t="s">
         <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>1.45</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>33</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/last_fetch_progress.xlsx
+++ b/outputs/last_fetch_progress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>site__village</t>
   </si>
@@ -61,25 +61,25 @@
     <t>review</t>
   </si>
   <si>
-    <t>TENGKHAL KHUNOU</t>
-  </si>
-  <si>
-    <t>269882</t>
-  </si>
-  <si>
-    <t>TENGKHAL KHUNOUA</t>
-  </si>
-  <si>
-    <t>BISHNUPUR</t>
+    <t>THONGJU (CT)</t>
+  </si>
+  <si>
+    <t>270322</t>
+  </si>
+  <si>
+    <t>THONGJUCT</t>
+  </si>
+  <si>
+    <t>IMPHAL EAST</t>
+  </si>
+  <si>
+    <t>IED-III</t>
   </si>
   <si>
     <t>completed</t>
   </si>
   <si>
-    <t>ongoing</t>
-  </si>
-  <si>
-    <t>not reviewed</t>
+    <t>issue</t>
   </si>
 </sst>
 </file>
@@ -437,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -507,86 +507,36 @@
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J2">
         <v>0.35</v>
       </c>
       <c r="K2">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0.25</v>
-      </c>
-      <c r="K3">
-        <v>0.2</v>
-      </c>
-      <c r="L3">
-        <v>15</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3" t="s">
         <v>21</v>
       </c>
     </row>
